--- a/Bursty/Infrence/inference_results.xlsx
+++ b/Bursty/Infrence/inference_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/Bursty/Infrence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A56EC5-365F-FC4F-946A-4A0B943C800C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563379B-862C-B443-ABDA-D8BA17B04114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" xr2:uid="{0039BA2A-B8F5-3342-B0C8-A1BAA6645262}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>kinetic_params0</t>
   </si>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSA_data_inference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exact_data_inference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,14 @@
   </si>
   <si>
     <t>[(0.01,0.1),(0,6),(50,150)]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSA_data_1_inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSA_data_2_inference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B337FE82-5F8C-CE4D-B66D-73D23C448DFC}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -523,7 +527,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -598,9 +602,18 @@
       </c>
     </row>
     <row r="3" spans="1:13">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
       <c r="E3">
         <v>3.3721259849999998</v>
       </c>
+      <c r="F3">
+        <v>-3.3642058413924398</v>
+      </c>
       <c r="G3">
         <v>2.2303217928839301E-2</v>
       </c>
@@ -611,97 +624,166 @@
         <v>115.35748221064</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3933295619999999</v>
+      </c>
+      <c r="F4">
+        <v>-3.3642058413924398</v>
+      </c>
+      <c r="G4">
+        <v>3.5574504606645699E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.0677268882012401</v>
+      </c>
+      <c r="I4">
+        <v>94.128124773081197</v>
+      </c>
+    </row>
     <row r="5" spans="1:13">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2">
-        <v>3.3933295619999999</v>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>3.3745899430000001</v>
+      </c>
+      <c r="F5">
+        <v>-3.3642058413924398</v>
       </c>
       <c r="G5">
-        <v>3.5574504606645699E-2</v>
+        <v>3.9481817861914098E-2</v>
       </c>
       <c r="H5">
-        <v>3.0677268882012401</v>
+        <v>3.9595613705188999</v>
       </c>
       <c r="I5">
-        <v>94.128124773081197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+        <v>82.194374498757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>3.3721143009999999</v>
+      </c>
+      <c r="F6">
+        <v>-3.3642058413924398</v>
+      </c>
+      <c r="G6">
+        <v>2.3154565015525701E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.9451617860227199</v>
+      </c>
+      <c r="I6">
+        <v>129.57739524597801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>3.3745899430000001</v>
-      </c>
-      <c r="G9">
-        <v>3.9481817861914098E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.9595613705188999</v>
-      </c>
-      <c r="I9">
-        <v>82.194374498757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="E10">
-        <v>3.3721143009999999</v>
-      </c>
-      <c r="G10">
-        <v>2.3154565015525701E-2</v>
-      </c>
-      <c r="H10">
-        <v>3.9451617860227199</v>
-      </c>
-      <c r="I10">
-        <v>129.57739524597801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
+      <c r="E7">
+        <v>3.3673929899999999</v>
+      </c>
+      <c r="F7">
+        <v>-3.3642058413924398</v>
+      </c>
+      <c r="G7">
+        <v>3.1361351706313698E-2</v>
+      </c>
+      <c r="H7">
+        <v>3.5546392497183401</v>
+      </c>
+      <c r="I7">
+        <v>104.30954470265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
         <v>100</v>
-      </c>
-      <c r="E14">
-        <v>3.3673929899999999</v>
-      </c>
-      <c r="G14">
-        <v>3.1361351706313698E-2</v>
-      </c>
-      <c r="H14">
-        <v>3.5546392497183401</v>
-      </c>
-      <c r="I14">
-        <v>104.30954470265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
       </c>
       <c r="E18">
         <v>3.2765992100000001</v>
@@ -718,8 +800,20 @@
       <c r="I18">
         <v>108.314201073018</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="L18">
+        <v>3.46</v>
+      </c>
+      <c r="M18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
       <c r="G19">
         <v>2.5113100466177599E-2</v>
       </c>
@@ -730,7 +824,13 @@
         <v>107.56488596885799</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3.2784302474312801</v>
+      </c>
       <c r="G20">
         <v>2.6212760736131799E-2</v>
       </c>
@@ -739,6 +839,122 @@
       </c>
       <c r="I20">
         <v>103.93532046553101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>3.2758864280000002</v>
+      </c>
+      <c r="G21">
+        <v>3.2279092297329698E-2</v>
+      </c>
+      <c r="H21">
+        <v>4.4811882519828599</v>
+      </c>
+      <c r="I21">
+        <v>80.648373890763295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>3.276525371</v>
+      </c>
+      <c r="G22">
+        <v>2.6309673270429601E-2</v>
+      </c>
+      <c r="H22">
+        <v>4.1972163623394199</v>
+      </c>
+      <c r="I22">
+        <v>102.52310478451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bursty/Infrence/inference_results.xlsx
+++ b/Bursty/Infrence/inference_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x-y-zhou/Documents/GitHub/VAE-CME/Bursty/Infrence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563379B-862C-B443-ABDA-D8BA17B04114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0844369-15A4-3846-AF27-B89EB4FA5F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" xr2:uid="{0039BA2A-B8F5-3342-B0C8-A1BAA6645262}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="33600" windowHeight="18660" xr2:uid="{0039BA2A-B8F5-3342-B0C8-A1BAA6645262}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>kinetic_params0</t>
   </si>
@@ -114,11 +114,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SSA_data_1_inference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSA_data_2_inference</t>
+    <t>data_1</t>
+  </si>
+  <si>
+    <t>SSA__1_inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSA_2_inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSA_3_inference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,13 +169,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,12 +200,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,8 +221,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B337FE82-5F8C-CE4D-B66D-73D23C448DFC}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -526,7 +557,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
@@ -734,9 +765,155 @@
         <v>104.30954470265</v>
       </c>
     </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>3.2765992100000001</v>
+      </c>
+      <c r="F11">
+        <v>-3.2729654231057901</v>
+      </c>
+      <c r="G11">
+        <v>2.9047034387431399E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.7113283903762699</v>
+      </c>
+      <c r="I11">
+        <v>108.314201073018</v>
+      </c>
+      <c r="K11">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.46</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2.5113100466177599E-2</v>
+      </c>
+      <c r="H12">
+        <v>3.9394001842469399</v>
+      </c>
+      <c r="I12">
+        <v>107.56488596885799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>2.6212760736131799E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.5280151073464499</v>
+      </c>
+      <c r="I13">
+        <v>103.93532046553101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3.2758864280000002</v>
+      </c>
+      <c r="G14">
+        <v>3.2279092297329698E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.4811882519828599</v>
+      </c>
+      <c r="I14">
+        <v>80.648373890763295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>3.276525371</v>
+      </c>
+      <c r="G15">
+        <v>2.6309673270429601E-2</v>
+      </c>
+      <c r="H15">
+        <v>4.1972163623394199</v>
+      </c>
+      <c r="I15">
+        <v>102.52310478451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3"/>
+    </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -786,19 +963,19 @@
         <v>100</v>
       </c>
       <c r="E18">
-        <v>3.2765992100000001</v>
+        <v>3.27681236520263</v>
       </c>
       <c r="F18">
-        <v>3.2784302474312801</v>
+        <v>-3.2698011526620898</v>
       </c>
       <c r="G18">
-        <v>2.9047034387431399E-2</v>
+        <v>2.45209789559886E-2</v>
       </c>
       <c r="H18">
-        <v>3.7113283903762699</v>
+        <v>4.3577450329567302</v>
       </c>
       <c r="I18">
-        <v>108.314201073018</v>
+        <v>116.351422505522</v>
       </c>
       <c r="K18">
         <v>2.8199999999999999E-2</v>
@@ -814,147 +991,337 @@
       <c r="A19" s="3">
         <v>2</v>
       </c>
+      <c r="E19">
+        <v>3.2762123213694498</v>
+      </c>
       <c r="G19">
-        <v>2.5113100466177599E-2</v>
+        <v>3.05414481142251E-2</v>
       </c>
       <c r="H19">
-        <v>3.9394001842469399</v>
+        <v>3.13588088394369</v>
       </c>
       <c r="I19">
-        <v>107.56488596885799</v>
+        <v>132.137379484815</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="F20">
-        <v>3.2784302474312801</v>
+      <c r="E20">
+        <v>3.2758576917562601</v>
       </c>
       <c r="G20">
-        <v>2.6212760736131799E-2</v>
+        <v>3.0815607692455001E-2</v>
       </c>
       <c r="H20">
-        <v>4.5280151073464499</v>
+        <v>3.60769159366812</v>
       </c>
       <c r="I20">
-        <v>103.93532046553101</v>
+        <v>118.278726440011</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>3.2758864280000002</v>
+      <c r="E21">
+        <v>3.2804272231962899</v>
       </c>
       <c r="G21">
-        <v>3.2279092297329698E-2</v>
+        <v>2.9780912114017899E-2</v>
       </c>
       <c r="H21">
-        <v>4.4811882519828599</v>
+        <v>3.3152909305832798</v>
       </c>
       <c r="I21">
-        <v>80.648373890763295</v>
+        <v>138.357286335624</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="F22">
-        <v>3.276525371</v>
+      <c r="E22">
+        <v>3.2762910387620501</v>
       </c>
       <c r="G22">
-        <v>2.6309673270429601E-2</v>
+        <v>2.6069289462280099E-2</v>
       </c>
       <c r="H22">
-        <v>4.1972163623394199</v>
+        <v>4.0407018470472602</v>
       </c>
       <c r="I22">
-        <v>102.52310478451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3">
-        <v>6</v>
+        <v>101.48750755245101</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>3.26760069239808</v>
+      </c>
+      <c r="F25">
+        <v>-3.2631005643120199</v>
+      </c>
+      <c r="G25">
+        <v>2.84036142100717E-2</v>
+      </c>
+      <c r="H25">
+        <v>3.8020712622233401</v>
+      </c>
+      <c r="I25">
+        <v>103.13656304325301</v>
+      </c>
+      <c r="K25">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="L25">
+        <v>3.46</v>
+      </c>
+      <c r="M25">
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="A26" s="3">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>12</v>
+      <c r="E26">
+        <v>3.2658366853912502</v>
+      </c>
+      <c r="G26">
+        <v>2.9832889287997599E-2</v>
+      </c>
+      <c r="H26">
+        <v>3.8371162079602201</v>
+      </c>
+      <c r="I26">
+        <v>102.430498291627</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3.2657498443393602</v>
+      </c>
+      <c r="G27">
+        <v>2.77525634112522E-2</v>
+      </c>
+      <c r="H27">
+        <v>3.8818600974125901</v>
+      </c>
+      <c r="I27">
+        <v>107.66422317639</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>3.2923849489046</v>
+      </c>
+      <c r="G28">
+        <v>1.96111322413468E-2</v>
+      </c>
+      <c r="H28">
+        <v>4.5282775445574401</v>
+      </c>
+      <c r="I28">
+        <v>149.51951075836001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="E29">
+        <v>3.2683671691741401</v>
+      </c>
+      <c r="G29">
+        <v>2.7947790304837999E-2</v>
+      </c>
+      <c r="H29">
+        <v>3.56252629480929</v>
+      </c>
+      <c r="I29">
+        <v>113.552843854606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3">
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3">
+      <c r="H32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3">
+      <c r="I32" t="s">
         <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13">
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>2.4706688184566898</v>
+      </c>
+      <c r="F33">
+        <v>-2.4274502402890201</v>
+      </c>
+      <c r="G33">
+        <v>1.41207382411088E-2</v>
+      </c>
+      <c r="H33">
+        <v>3.7117822634181801</v>
+      </c>
+      <c r="I33">
+        <v>51.121503245351199</v>
+      </c>
+      <c r="K33">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="L33">
+        <v>2.46</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13">
+      <c r="E34">
+        <v>2.4973884670136299</v>
+      </c>
+      <c r="G34">
+        <v>1.5794603422203801E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.8075924690238798</v>
+      </c>
+      <c r="I34">
+        <v>54.244985505807897</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13">
+      <c r="E35">
+        <v>2.5795520474682898</v>
+      </c>
+      <c r="G35">
+        <v>1.0091206156510499E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.0654851005454899</v>
+      </c>
+      <c r="I35">
+        <v>81.872832775689005</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13">
+      <c r="E36">
+        <v>2.4767940548846399</v>
+      </c>
+      <c r="G36">
+        <v>1.0639669308300801E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.6847578801604901</v>
+      </c>
+      <c r="I36">
+        <v>61.916879782311902</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13">
+      <c r="E37">
+        <v>2.4703035005013998</v>
+      </c>
+      <c r="G37">
+        <v>1.3959439890210101E-2</v>
+      </c>
+      <c r="H37">
+        <v>3.8766235265227098</v>
+      </c>
+      <c r="I37">
+        <v>52.552668704842603</v>
       </c>
     </row>
   </sheetData>
